--- a/table_adr_map_mb.xlsx
+++ b/table_adr_map_mb.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>адрес регистра</t>
   </si>
@@ -112,6 +112,33 @@
   </si>
   <si>
     <t>Частота</t>
+  </si>
+  <si>
+    <t>SET_KEY_TYPE</t>
+  </si>
+  <si>
+    <t>"0" транзистор+реле; "1" транзистор; "2" реле</t>
+  </si>
+  <si>
+    <t>SET_SHIFT_VOLTAGE</t>
+  </si>
+  <si>
+    <t>0 транзистор+реле; "1" транзистор; "2" реле</t>
+  </si>
+  <si>
+    <t>"0" 10%; "1" 15%; "2" 20%</t>
+  </si>
+  <si>
+    <t>GET_STATUS_KEY_TYPE</t>
+  </si>
+  <si>
+    <t>GET_STATUS_SHIFT_VOLTAGE</t>
+  </si>
+  <si>
+    <t>0 10%; "1" 15%; "2" 20%</t>
+  </si>
+  <si>
+    <t>0/1/2/</t>
   </si>
 </sst>
 </file>
@@ -429,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +467,7 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,11 +558,29 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -765,34 +810,107 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/table_adr_map_mb.xlsx
+++ b/table_adr_map_mb.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>адрес регистра</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>0/1/2/</t>
+  </si>
+  <si>
+    <t>GET_STATUS_KEY_DELAY</t>
+  </si>
+  <si>
+    <t>GET_STATUS_SS_KEY_DELAY</t>
+  </si>
+  <si>
+    <t>Задержка включения реле</t>
+  </si>
+  <si>
+    <t>Задержка включения транзистора.</t>
+  </si>
+  <si>
+    <t>в милисекундах</t>
+  </si>
+  <si>
+    <t>0-1000000</t>
   </si>
 </sst>
 </file>
@@ -458,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,11 +827,23 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -887,10 +917,28 @@
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
